--- a/benchmarks/cscs2022/xlsx/Random/180.xlsx
+++ b/benchmarks/cscs2022/xlsx/Random/180.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnsai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PHD\P.h.D papers\Paper_Integer Programming Based Optimization of Power Consumption for DCNs\Solvers\New  benchmarks\New  benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8109A-585A-4C65-AE54-FCDD29493A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4067720-424B-42FA-8E24-189423AB44D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,554 +35,560 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>f7</t>
-  </si>
-  <si>
-    <t>f8</t>
-  </si>
-  <si>
-    <t>f9</t>
-  </si>
-  <si>
-    <t>f10</t>
-  </si>
-  <si>
-    <t>f11</t>
-  </si>
-  <si>
-    <t>f12</t>
-  </si>
-  <si>
-    <t>f13</t>
-  </si>
-  <si>
-    <t>f14</t>
-  </si>
-  <si>
-    <t>f15</t>
-  </si>
-  <si>
-    <t>f16</t>
-  </si>
-  <si>
-    <t>f17</t>
-  </si>
-  <si>
-    <t>f18</t>
-  </si>
-  <si>
-    <t>f19</t>
-  </si>
-  <si>
-    <t>f20</t>
-  </si>
-  <si>
-    <t>f21</t>
-  </si>
-  <si>
-    <t>f22</t>
-  </si>
-  <si>
-    <t>f23</t>
-  </si>
-  <si>
-    <t>f24</t>
-  </si>
-  <si>
-    <t>f25</t>
-  </si>
-  <si>
-    <t>f26</t>
-  </si>
-  <si>
-    <t>f27</t>
-  </si>
-  <si>
-    <t>f28</t>
-  </si>
-  <si>
-    <t>f29</t>
-  </si>
-  <si>
-    <t>f30</t>
-  </si>
-  <si>
-    <t>f31</t>
-  </si>
-  <si>
-    <t>f32</t>
-  </si>
-  <si>
-    <t>f33</t>
-  </si>
-  <si>
-    <t>f34</t>
-  </si>
-  <si>
-    <t>f35</t>
-  </si>
-  <si>
-    <t>f36</t>
-  </si>
-  <si>
-    <t>f37</t>
-  </si>
-  <si>
-    <t>f38</t>
-  </si>
-  <si>
-    <t>f39</t>
-  </si>
-  <si>
-    <t>f40</t>
-  </si>
-  <si>
-    <t>f41</t>
-  </si>
-  <si>
-    <t>f42</t>
-  </si>
-  <si>
-    <t>f43</t>
-  </si>
-  <si>
-    <t>f44</t>
-  </si>
-  <si>
-    <t>f45</t>
-  </si>
-  <si>
-    <t>f46</t>
-  </si>
-  <si>
-    <t>f47</t>
-  </si>
-  <si>
-    <t>f48</t>
-  </si>
-  <si>
-    <t>f49</t>
-  </si>
-  <si>
-    <t>f50</t>
-  </si>
-  <si>
-    <t>f51</t>
-  </si>
-  <si>
-    <t>f52</t>
-  </si>
-  <si>
-    <t>f53</t>
-  </si>
-  <si>
-    <t>f54</t>
-  </si>
-  <si>
-    <t>f55</t>
-  </si>
-  <si>
-    <t>f56</t>
-  </si>
-  <si>
-    <t>f57</t>
-  </si>
-  <si>
-    <t>f58</t>
-  </si>
-  <si>
-    <t>f59</t>
-  </si>
-  <si>
-    <t>f60</t>
-  </si>
-  <si>
-    <t>f61</t>
-  </si>
-  <si>
-    <t>f62</t>
-  </si>
-  <si>
-    <t>f63</t>
-  </si>
-  <si>
-    <t>f64</t>
-  </si>
-  <si>
-    <t>f65</t>
-  </si>
-  <si>
-    <t>f66</t>
-  </si>
-  <si>
-    <t>f67</t>
-  </si>
-  <si>
-    <t>f68</t>
-  </si>
-  <si>
-    <t>f69</t>
-  </si>
-  <si>
-    <t>f70</t>
-  </si>
-  <si>
-    <t>f71</t>
-  </si>
-  <si>
-    <t>f72</t>
-  </si>
-  <si>
-    <t>f73</t>
-  </si>
-  <si>
-    <t>f74</t>
-  </si>
-  <si>
-    <t>f75</t>
-  </si>
-  <si>
-    <t>f76</t>
-  </si>
-  <si>
-    <t>f77</t>
-  </si>
-  <si>
-    <t>f78</t>
-  </si>
-  <si>
-    <t>f79</t>
-  </si>
-  <si>
-    <t>f80</t>
-  </si>
-  <si>
-    <t>f81</t>
-  </si>
-  <si>
-    <t>f82</t>
-  </si>
-  <si>
-    <t>f83</t>
-  </si>
-  <si>
-    <t>f84</t>
-  </si>
-  <si>
-    <t>f85</t>
-  </si>
-  <si>
-    <t>f86</t>
-  </si>
-  <si>
-    <t>f87</t>
-  </si>
-  <si>
-    <t>f88</t>
-  </si>
-  <si>
-    <t>f89</t>
-  </si>
-  <si>
-    <t>f90</t>
-  </si>
-  <si>
-    <t>f91</t>
-  </si>
-  <si>
-    <t>f92</t>
-  </si>
-  <si>
-    <t>f93</t>
-  </si>
-  <si>
-    <t>f94</t>
-  </si>
-  <si>
-    <t>f95</t>
-  </si>
-  <si>
-    <t>f96</t>
-  </si>
-  <si>
-    <t>f97</t>
-  </si>
-  <si>
-    <t>f98</t>
-  </si>
-  <si>
-    <t>f99</t>
-  </si>
-  <si>
-    <t>f100</t>
-  </si>
-  <si>
-    <t>f101</t>
-  </si>
-  <si>
-    <t>f102</t>
-  </si>
-  <si>
-    <t>f103</t>
-  </si>
-  <si>
-    <t>f104</t>
-  </si>
-  <si>
-    <t>f105</t>
-  </si>
-  <si>
-    <t>f106</t>
-  </si>
-  <si>
-    <t>f107</t>
-  </si>
-  <si>
-    <t>f108</t>
-  </si>
-  <si>
-    <t>f109</t>
-  </si>
-  <si>
-    <t>f110</t>
-  </si>
-  <si>
-    <t>f111</t>
-  </si>
-  <si>
-    <t>f112</t>
-  </si>
-  <si>
-    <t>f113</t>
-  </si>
-  <si>
-    <t>f114</t>
-  </si>
-  <si>
-    <t>f115</t>
-  </si>
-  <si>
-    <t>f116</t>
-  </si>
-  <si>
-    <t>f117</t>
-  </si>
-  <si>
-    <t>f118</t>
-  </si>
-  <si>
-    <t>f119</t>
-  </si>
-  <si>
-    <t>f120</t>
-  </si>
-  <si>
-    <t>f121</t>
-  </si>
-  <si>
-    <t>f122</t>
-  </si>
-  <si>
-    <t>f123</t>
-  </si>
-  <si>
-    <t>f124</t>
-  </si>
-  <si>
-    <t>f125</t>
-  </si>
-  <si>
-    <t>f126</t>
-  </si>
-  <si>
-    <t>f127</t>
-  </si>
-  <si>
-    <t>f128</t>
-  </si>
-  <si>
-    <t>f129</t>
-  </si>
-  <si>
-    <t>f130</t>
-  </si>
-  <si>
-    <t>f131</t>
-  </si>
-  <si>
-    <t>f132</t>
-  </si>
-  <si>
-    <t>f133</t>
-  </si>
-  <si>
-    <t>f134</t>
-  </si>
-  <si>
-    <t>f135</t>
-  </si>
-  <si>
-    <t>f136</t>
-  </si>
-  <si>
-    <t>f137</t>
-  </si>
-  <si>
-    <t>f138</t>
-  </si>
-  <si>
-    <t>f139</t>
-  </si>
-  <si>
-    <t>f140</t>
-  </si>
-  <si>
-    <t>f141</t>
-  </si>
-  <si>
-    <t>f142</t>
-  </si>
-  <si>
-    <t>f143</t>
-  </si>
-  <si>
-    <t>f144</t>
-  </si>
-  <si>
-    <t>f145</t>
-  </si>
-  <si>
-    <t>f146</t>
-  </si>
-  <si>
-    <t>f147</t>
-  </si>
-  <si>
-    <t>f148</t>
-  </si>
-  <si>
-    <t>f149</t>
-  </si>
-  <si>
-    <t>f150</t>
-  </si>
-  <si>
-    <t>f151</t>
-  </si>
-  <si>
-    <t>f152</t>
-  </si>
-  <si>
-    <t>f153</t>
-  </si>
-  <si>
-    <t>f154</t>
-  </si>
-  <si>
-    <t>f155</t>
-  </si>
-  <si>
-    <t>f156</t>
-  </si>
-  <si>
-    <t>f157</t>
-  </si>
-  <si>
-    <t>f158</t>
-  </si>
-  <si>
-    <t>f159</t>
-  </si>
-  <si>
-    <t>f160</t>
-  </si>
-  <si>
-    <t>f161</t>
-  </si>
-  <si>
-    <t>f162</t>
-  </si>
-  <si>
-    <t>f163</t>
-  </si>
-  <si>
-    <t>f164</t>
-  </si>
-  <si>
-    <t>f165</t>
-  </si>
-  <si>
-    <t>f166</t>
-  </si>
-  <si>
-    <t>f167</t>
-  </si>
-  <si>
-    <t>f168</t>
-  </si>
-  <si>
-    <t>f169</t>
-  </si>
-  <si>
-    <t>f170</t>
-  </si>
-  <si>
-    <t>f171</t>
-  </si>
-  <si>
-    <t>f172</t>
-  </si>
-  <si>
-    <t>f173</t>
-  </si>
-  <si>
-    <t>f174</t>
-  </si>
-  <si>
-    <t>f175</t>
-  </si>
-  <si>
-    <t>f176</t>
-  </si>
-  <si>
-    <t>f177</t>
-  </si>
-  <si>
-    <t>f178</t>
-  </si>
-  <si>
-    <t>f179</t>
-  </si>
-  <si>
-    <t>f180</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F100</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>F107</t>
+  </si>
+  <si>
+    <t>F108</t>
+  </si>
+  <si>
+    <t>F109</t>
+  </si>
+  <si>
+    <t>F110</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>F119</t>
+  </si>
+  <si>
+    <t>F120</t>
+  </si>
+  <si>
+    <t>F121</t>
+  </si>
+  <si>
+    <t>F122</t>
+  </si>
+  <si>
+    <t>F123</t>
+  </si>
+  <si>
+    <t>F124</t>
+  </si>
+  <si>
+    <t>F125</t>
+  </si>
+  <si>
+    <t>F126</t>
+  </si>
+  <si>
+    <t>F127</t>
+  </si>
+  <si>
+    <t>F128</t>
+  </si>
+  <si>
+    <t>F129</t>
+  </si>
+  <si>
+    <t>F130</t>
+  </si>
+  <si>
+    <t>F131</t>
+  </si>
+  <si>
+    <t>F132</t>
+  </si>
+  <si>
+    <t>F133</t>
+  </si>
+  <si>
+    <t>F134</t>
+  </si>
+  <si>
+    <t>F135</t>
+  </si>
+  <si>
+    <t>F136</t>
+  </si>
+  <si>
+    <t>F137</t>
+  </si>
+  <si>
+    <t>F138</t>
+  </si>
+  <si>
+    <t>F139</t>
+  </si>
+  <si>
+    <t>F140</t>
+  </si>
+  <si>
+    <t>F141</t>
+  </si>
+  <si>
+    <t>F142</t>
+  </si>
+  <si>
+    <t>F143</t>
+  </si>
+  <si>
+    <t>F144</t>
+  </si>
+  <si>
+    <t>F145</t>
+  </si>
+  <si>
+    <t>F146</t>
+  </si>
+  <si>
+    <t>F147</t>
+  </si>
+  <si>
+    <t>F148</t>
+  </si>
+  <si>
+    <t>F149</t>
+  </si>
+  <si>
+    <t>F150</t>
+  </si>
+  <si>
+    <t>F151</t>
+  </si>
+  <si>
+    <t>F152</t>
+  </si>
+  <si>
+    <t>F153</t>
+  </si>
+  <si>
+    <t>F154</t>
+  </si>
+  <si>
+    <t>F155</t>
+  </si>
+  <si>
+    <t>F156</t>
+  </si>
+  <si>
+    <t>F157</t>
+  </si>
+  <si>
+    <t>F158</t>
+  </si>
+  <si>
+    <t>F159</t>
+  </si>
+  <si>
+    <t>F160</t>
+  </si>
+  <si>
+    <t>F161</t>
+  </si>
+  <si>
+    <t>F162</t>
+  </si>
+  <si>
+    <t>F163</t>
+  </si>
+  <si>
+    <t>F164</t>
+  </si>
+  <si>
+    <t>F165</t>
+  </si>
+  <si>
+    <t>F166</t>
+  </si>
+  <si>
+    <t>F167</t>
+  </si>
+  <si>
+    <t>F168</t>
+  </si>
+  <si>
+    <t>F169</t>
+  </si>
+  <si>
+    <t>F170</t>
+  </si>
+  <si>
+    <t>F171</t>
+  </si>
+  <si>
+    <t>F172</t>
+  </si>
+  <si>
+    <t>F173</t>
+  </si>
+  <si>
+    <t>F174</t>
+  </si>
+  <si>
+    <t>F175</t>
+  </si>
+  <si>
+    <t>F176</t>
+  </si>
+  <si>
+    <t>F177</t>
+  </si>
+  <si>
+    <t>F178</t>
+  </si>
+  <si>
+    <t>F179</t>
+  </si>
+  <si>
+    <t>F180</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -899,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection sqref="A1:A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,7 +925,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="2">
-        <v>21.329046087888532</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -933,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>73.954983922829584</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -947,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>78.349410503751344</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -961,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>0.21436227224008572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -975,7 +981,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>6.645230439442658</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -989,7 +995,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>69.667738478027857</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1003,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>18.756698821007504</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1017,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>4.394426580921758</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1031,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>6.538049303322615</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1045,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>71.489817792068607</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>74.812433011789935</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1073,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>3.4297963558413715</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1087,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>103.64415862808146</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1101,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>100.42872454448016</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1115,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>37.513397642015008</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1129,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>14.683815648445872</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1143,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2">
-        <v>31.618435155412648</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1157,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>56.80600214362272</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1171,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>88.960342979635584</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1185,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>27.224008574490888</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1199,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="2">
-        <v>42.658092175777064</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1213,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="2">
-        <v>36.763129689174704</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1227,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>30.117899249732048</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1241,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>74.544750096861677</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1255,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="2">
-        <v>33.087950406819061</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1269,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>60.596667958155756</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1283,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>67.260751646648586</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1297,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>24.021697016660209</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1311,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="2">
-        <v>29.368461836497481</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1325,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="2">
-        <v>51.840371948857033</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1339,7 +1345,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="2">
-        <v>50.755521115846577</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1353,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>1.0073614877954282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1367,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="D33" s="2">
-        <v>67.803177063153825</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1381,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="2">
-        <v>72.994963192561016</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1395,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="2">
-        <v>37.03990701278574</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1409,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="2">
-        <v>8.8337853545137541</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1423,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="2">
-        <v>22.239442076714454</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,7 +1443,7 @@
         <v>10</v>
       </c>
       <c r="D38" s="2">
-        <v>8.5238279736536224</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1451,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="2">
-        <v>63.696241766757076</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1465,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="2">
-        <v>75.939558310732281</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1479,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="2">
-        <v>53.622626888802785</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1493,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="2">
-        <v>42.464161177838051</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1507,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="D43" s="2">
-        <v>40.836884928322355</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1521,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="2">
-        <v>42.774118558698177</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1535,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="2">
-        <v>41.456799690042615</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1549,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="2">
-        <v>29.290972491282446</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1563,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="2">
-        <v>31.021754496191001</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1577,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>45.001178041309977</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>32.199795806172936</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1605,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>13.429670933794078</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1619,7 +1625,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>15.000392680436661</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1633,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>44.215817167988689</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1647,7 +1653,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>69.111756852273629</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1661,7 +1667,7 @@
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>9.6599387418518798</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1675,7 +1681,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>15.393073117097305</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1689,7 +1695,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="2">
-        <v>28.508599701562868</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1703,7 +1709,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="2">
-        <v>31.414434932851648</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1717,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="2">
-        <v>67.619571192963164</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1731,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="D59" s="2">
-        <v>62.750333778371164</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1745,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="2">
-        <v>64.792272049006513</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1759,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="D61" s="2">
-        <v>52.697714599858635</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1773,7 +1779,7 @@
         <v>11</v>
       </c>
       <c r="D62" s="2">
-        <v>21.675960103667634</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1787,7 +1793,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="2">
-        <v>54.189900259169086</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1801,7 +1807,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="2">
-        <v>28.430063614230736</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1815,7 +1821,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="2">
-        <v>58.273776800439805</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1829,7 +1835,7 @@
         <v>11</v>
       </c>
       <c r="D66" s="2">
-        <v>72.960025131547951</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1843,7 +1849,7 @@
         <v>11</v>
       </c>
       <c r="D67" s="2">
-        <v>52.854786774522893</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1857,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="2">
-        <v>58.11670462577554</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1871,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="D69" s="2">
-        <v>70.682478598916205</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1885,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="D70" s="2">
-        <v>28.345834978286614</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1899,7 +1905,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="2">
-        <v>39.084090011843664</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1913,7 +1919,7 @@
         <v>12</v>
       </c>
       <c r="D72" s="2">
-        <v>28.503750493485985</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1927,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="2">
-        <v>74.851954204500601</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1941,7 +1947,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="2">
-        <v>72.720094749309112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1955,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="D75" s="2">
-        <v>50.690880378997235</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1969,7 +1975,7 @@
         <v>12</v>
       </c>
       <c r="D76" s="2">
-        <v>69.009080142123963</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1983,7 +1989,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="2">
-        <v>66.324516383734704</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1997,7 +2003,7 @@
         <v>12</v>
       </c>
       <c r="D78" s="2">
-        <v>10.185550730359257</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2011,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="D79" s="2">
-        <v>17.291748914330832</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2025,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="2">
-        <v>56.691669956573229</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2039,7 +2045,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="2">
-        <v>4.1058033951835764</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2053,7 +2059,7 @@
         <v>12</v>
       </c>
       <c r="D82" s="2">
-        <v>7.737860244769049</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2067,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="2">
-        <v>19.660481642321361</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2081,7 +2087,7 @@
         <v>12</v>
       </c>
       <c r="D84" s="2">
-        <v>48.243189893407028</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2095,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="2">
-        <v>52.901697591788391</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2109,7 +2115,7 @@
         <v>12</v>
       </c>
       <c r="D86" s="2">
-        <v>66.403474141334399</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2123,7 +2129,7 @@
         <v>12</v>
       </c>
       <c r="D87" s="2">
-        <v>14.449269640742203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2137,7 +2143,7 @@
         <v>12</v>
       </c>
       <c r="D88" s="2">
-        <v>6.4745361231741017</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2151,7 +2157,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="2">
-        <v>55.66521910777734</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2165,7 +2171,7 @@
         <v>12</v>
       </c>
       <c r="D90" s="2">
-        <v>76.352151598894594</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2179,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="D91" s="2">
-        <v>69.798657718120793</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2193,7 +2199,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="2">
-        <v>64.50848795894197</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2207,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="2">
-        <v>4.428044280442804</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2221,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="D94" s="2">
-        <v>81.91881918819189</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2235,7 +2241,7 @@
         <v>13</v>
       </c>
       <c r="D95" s="2">
-        <v>16.14391143911439</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2249,7 +2255,7 @@
         <v>13</v>
       </c>
       <c r="D96" s="2">
-        <v>70.479704797047972</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,7 +2269,7 @@
         <v>13</v>
       </c>
       <c r="D97" s="2">
-        <v>39.022140221402211</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2277,7 +2283,7 @@
         <v>13</v>
       </c>
       <c r="D98" s="2">
-        <v>46.863468634686342</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2291,7 +2297,7 @@
         <v>13</v>
       </c>
       <c r="D99" s="2">
-        <v>41.789667896678971</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2305,7 +2311,7 @@
         <v>13</v>
       </c>
       <c r="D100" s="2">
-        <v>82.933579335793354</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2319,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="D101" s="2">
-        <v>28.874538745387454</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2333,7 +2339,7 @@
         <v>13</v>
       </c>
       <c r="D102" s="2">
-        <v>4.2435424354243541</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2347,7 +2353,7 @@
         <v>13</v>
       </c>
       <c r="D103" s="2">
-        <v>66.236162361623627</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2361,7 +2367,7 @@
         <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>30.811808118081181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2375,7 +2381,7 @@
         <v>13</v>
       </c>
       <c r="D105" s="2">
-        <v>72.047970479704787</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2389,7 +2395,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="2">
-        <v>22.97047970479705</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2403,7 +2409,7 @@
         <v>13</v>
       </c>
       <c r="D107" s="2">
-        <v>21.033210332103319</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2417,7 +2423,7 @@
         <v>13</v>
       </c>
       <c r="D108" s="2">
-        <v>0.27675276752767525</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2431,7 +2437,7 @@
         <v>13</v>
       </c>
       <c r="D109" s="2">
-        <v>17.250922509225092</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2445,7 +2451,7 @@
         <v>13</v>
       </c>
       <c r="D110" s="2">
-        <v>31.365313653136528</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2459,7 +2465,7 @@
         <v>13</v>
       </c>
       <c r="D111" s="2">
-        <v>81.549815498154985</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2473,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="D112" s="2">
-        <v>65.774907749077485</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2487,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="D113" s="2">
-        <v>89.944649446494466</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2501,7 +2507,7 @@
         <v>13</v>
       </c>
       <c r="D114" s="2">
-        <v>55.811808118081181</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2515,7 +2521,7 @@
         <v>13</v>
       </c>
       <c r="D115" s="2">
-        <v>28.228782287822877</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2529,7 +2535,7 @@
         <v>14</v>
       </c>
       <c r="D116" s="2">
-        <v>44.570215776441458</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2543,7 +2549,7 @@
         <v>14</v>
       </c>
       <c r="D117" s="2">
-        <v>53.696498054474702</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2557,7 +2563,7 @@
         <v>14</v>
       </c>
       <c r="D118" s="2">
-        <v>64.662186062964267</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2571,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="D119" s="2">
-        <v>50.300672090555359</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2585,7 +2591,7 @@
         <v>14</v>
       </c>
       <c r="D120" s="2">
-        <v>8.2065794128050946</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2599,7 +2605,7 @@
         <v>14</v>
       </c>
       <c r="D121" s="2">
-        <v>32.189600282985495</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2613,7 +2619,7 @@
         <v>14</v>
       </c>
       <c r="D122" s="2">
-        <v>25.185709232401837</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2627,7 +2633,7 @@
         <v>14</v>
       </c>
       <c r="D123" s="2">
-        <v>56.526353024407499</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2641,7 +2647,7 @@
         <v>14</v>
       </c>
       <c r="D124" s="2">
-        <v>53.059780686239833</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2655,7 +2661,7 @@
         <v>14</v>
       </c>
       <c r="D125" s="2">
-        <v>8.348072161301733</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2669,7 +2675,7 @@
         <v>14</v>
       </c>
       <c r="D126" s="2">
-        <v>12.309869119207642</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2683,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="D127" s="2">
-        <v>28.086310576582953</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2697,7 +2703,7 @@
         <v>14</v>
       </c>
       <c r="D128" s="2">
-        <v>34.170498761938447</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2711,7 +2717,7 @@
         <v>14</v>
       </c>
       <c r="D129" s="2">
-        <v>11.460912628227803</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2725,7 +2731,7 @@
         <v>14</v>
       </c>
       <c r="D130" s="2">
-        <v>33.958259639193493</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2739,7 +2745,7 @@
         <v>14</v>
       </c>
       <c r="D131" s="2">
-        <v>52.210824195259988</v>
+        <v>27</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2753,7 +2759,7 @@
         <v>14</v>
       </c>
       <c r="D132" s="2">
-        <v>68.411743898125223</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2767,7 +2773,7 @@
         <v>14</v>
       </c>
       <c r="D133" s="2">
-        <v>48.744251857092323</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2781,7 +2787,7 @@
         <v>14</v>
       </c>
       <c r="D134" s="2">
-        <v>58.719490626105411</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2795,7 +2801,7 @@
         <v>14</v>
       </c>
       <c r="D135" s="2">
-        <v>69.189954014856738</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2809,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="D136" s="2">
-        <v>63.530244074991153</v>
+        <v>32</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -2823,7 +2829,7 @@
         <v>14</v>
       </c>
       <c r="D137" s="2">
-        <v>62.469048461266361</v>
+        <v>32</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -2837,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="D138" s="2">
-        <v>59.992925362575164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -2851,7 +2857,7 @@
         <v>15</v>
       </c>
       <c r="D139" s="2">
-        <v>61.435124508519003</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -2865,7 +2871,7 @@
         <v>15</v>
       </c>
       <c r="D140" s="2">
-        <v>7.2083879423328971</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -2879,7 +2885,7 @@
         <v>15</v>
       </c>
       <c r="D141" s="2">
-        <v>53.243774574049802</v>
+        <v>27</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -2893,7 +2899,7 @@
         <v>15</v>
       </c>
       <c r="D142" s="2">
-        <v>27.850589777195282</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -2907,7 +2913,7 @@
         <v>15</v>
       </c>
       <c r="D143" s="2">
-        <v>77.490170380078638</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -2921,7 +2927,7 @@
         <v>15</v>
       </c>
       <c r="D144" s="2">
-        <v>44.72477064220184</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -2935,7 +2941,7 @@
         <v>15</v>
       </c>
       <c r="D145" s="2">
-        <v>31.782437745740502</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -2949,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="D146" s="2">
-        <v>53.817169069462651</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -2963,7 +2969,7 @@
         <v>15</v>
       </c>
       <c r="D147" s="2">
-        <v>3.9318479685452159</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -2977,7 +2983,7 @@
         <v>15</v>
       </c>
       <c r="D148" s="2">
-        <v>19.003931847968545</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -2991,7 +2997,7 @@
         <v>15</v>
       </c>
       <c r="D149" s="2">
-        <v>65.940366972477051</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3005,7 +3011,7 @@
         <v>15</v>
       </c>
       <c r="D150" s="2">
-        <v>60.534076015727393</v>
+        <v>31</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3019,7 +3025,7 @@
         <v>15</v>
       </c>
       <c r="D151" s="2">
-        <v>28.096330275229359</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3033,7 +3039,7 @@
         <v>15</v>
       </c>
       <c r="D152" s="2">
-        <v>16.628440366972477</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3047,7 +3053,7 @@
         <v>15</v>
       </c>
       <c r="D153" s="2">
-        <v>70.855176933158589</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3061,7 +3067,7 @@
         <v>15</v>
       </c>
       <c r="D154" s="2">
-        <v>41.284403669724774</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3075,7 +3081,7 @@
         <v>15</v>
       </c>
       <c r="D155" s="2">
-        <v>55.209698558322408</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3089,7 +3095,7 @@
         <v>15</v>
       </c>
       <c r="D156" s="2">
-        <v>0.49148099606815199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3103,7 +3109,7 @@
         <v>15</v>
       </c>
       <c r="D157" s="2">
-        <v>19.003931847968545</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3117,7 +3123,7 @@
         <v>15</v>
       </c>
       <c r="D158" s="2">
-        <v>68.233944954128432</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3131,7 +3137,7 @@
         <v>15</v>
       </c>
       <c r="D159" s="2">
-        <v>69.544560943643518</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3145,7 +3151,7 @@
         <v>15</v>
       </c>
       <c r="D160" s="2">
-        <v>48.902359108781127</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3159,7 +3165,7 @@
         <v>15</v>
       </c>
       <c r="D161" s="2">
-        <v>74.787024901703802</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3173,7 +3179,7 @@
         <v>16</v>
       </c>
       <c r="D162" s="2">
-        <v>62.329097635515524</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3187,7 +3193,7 @@
         <v>16</v>
       </c>
       <c r="D163" s="2">
-        <v>3.1365610423033616</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3201,7 +3207,7 @@
         <v>16</v>
       </c>
       <c r="D164" s="2">
-        <v>64.661412256715451</v>
+        <v>33</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3215,7 +3221,7 @@
         <v>16</v>
       </c>
       <c r="D165" s="2">
-        <v>21.553804085571819</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3229,7 +3235,7 @@
         <v>16</v>
       </c>
       <c r="D166" s="2">
-        <v>67.31542544635677</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3243,7 +3249,7 @@
         <v>16</v>
       </c>
       <c r="D167" s="2">
-        <v>73.266848962522118</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3257,7 +3263,7 @@
         <v>16</v>
       </c>
       <c r="D168" s="2">
-        <v>48.254785266205566</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3271,7 +3277,7 @@
         <v>16</v>
       </c>
       <c r="D169" s="2">
-        <v>47.933086697764196</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3285,7 +3291,7 @@
         <v>16</v>
       </c>
       <c r="D170" s="2">
-        <v>56.055975550908798</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3299,7 +3305,7 @@
         <v>16</v>
       </c>
       <c r="D171" s="2">
-        <v>4.262506031848158</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3313,7 +3319,7 @@
         <v>16</v>
       </c>
       <c r="D172" s="2">
-        <v>52.919414508605435</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3327,7 +3333,7 @@
         <v>16</v>
       </c>
       <c r="D173" s="2">
-        <v>34.582596107447323</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3341,7 +3347,7 @@
         <v>16</v>
       </c>
       <c r="D174" s="2">
-        <v>35.869390381212803</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3355,7 +3361,7 @@
         <v>16</v>
       </c>
       <c r="D175" s="2">
-        <v>30.400514717709505</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3369,7 +3375,7 @@
         <v>16</v>
       </c>
       <c r="D176" s="2">
-        <v>58.629564098439765</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3383,7 +3389,7 @@
         <v>16</v>
       </c>
       <c r="D177" s="2">
-        <v>20.749557664468391</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3397,7 +3403,7 @@
         <v>16</v>
       </c>
       <c r="D178" s="2">
-        <v>21.634228727682164</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3411,7 +3417,7 @@
         <v>16</v>
       </c>
       <c r="D179" s="2">
-        <v>46.807141708219397</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3425,10 +3431,11 @@
         <v>16</v>
       </c>
       <c r="D180" s="2">
-        <v>62.409522277625861</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>